--- a/학사관리 샘플데이터/샘플-데이터-제1정규화(.xlsx
+++ b/학사관리 샘플데이터/샘플-데이터-제1정규화(.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="556">
   <si>
     <t>학번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1794,6 +1794,13 @@
   <si>
     <t>S0020</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0020</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2093,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2154,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2500,14 +2507,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>214</v>
+        <v>554</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-5710-9056</v>
+        <v>010-2694-5189</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>314</v>
@@ -2529,14 +2536,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>453</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-6884-8287</v>
+        <v>010-5451-1611</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>315</v>
@@ -2558,14 +2565,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>216</v>
+        <v>454</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1984-7017</v>
+        <v>010-2822-1042</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>348</v>
@@ -2587,14 +2594,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5998-3529</v>
+        <v>010-5612-9900</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>349</v>
@@ -2616,14 +2623,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3246-7607</v>
+        <v>010-2101-6956</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>316</v>
@@ -2645,14 +2652,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9214-0788</v>
+        <v>010-7831-8899</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>317</v>
@@ -2674,14 +2681,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>220</v>
+        <v>458</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1361-6523</v>
+        <v>010-5789-5363</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>344</v>
@@ -2703,14 +2710,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8209-0077</v>
+        <v>010-7468-8394</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>318</v>
@@ -2732,14 +2739,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>222</v>
+        <v>460</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7491-4656</v>
+        <v>010-4757-9881</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>319</v>
@@ -2761,14 +2768,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>223</v>
+        <v>461</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1263-6426</v>
+        <v>010-9981-1149</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>346</v>
@@ -2790,14 +2797,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7475-9359</v>
+        <v>010-3407-4017</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>347</v>
@@ -2819,14 +2826,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>225</v>
+        <v>463</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8980-6547</v>
+        <v>010-1588-6950</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>320</v>
@@ -2848,14 +2855,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7643-1045</v>
+        <v>010-7670-7430</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>350</v>
@@ -2877,14 +2884,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>227</v>
+        <v>465</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1209-2623</v>
+        <v>010-4150-9452</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>321</v>
@@ -2906,14 +2913,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>466</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9777-3561</v>
+        <v>010-9844-5138</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>322</v>
@@ -2935,14 +2942,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>229</v>
+        <v>467</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3370-9271</v>
+        <v>010-1507-0929</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>323</v>
@@ -2964,14 +2971,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5566-8614</v>
+        <v>010-3300-3590</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>345</v>
@@ -2993,14 +3000,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4740-9548</v>
+        <v>010-6866-3998</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>351</v>
@@ -3022,14 +3029,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7507-2262</v>
+        <v>010-5335-4308</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>352</v>
@@ -3051,14 +3058,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>233</v>
+        <v>555</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5259-6810</v>
+        <v>010-6675-6383</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>353</v>
@@ -3080,14 +3087,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>234</v>
+        <v>471</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8597-1103</v>
+        <v>010-6385-6885</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>354</v>
@@ -3109,14 +3116,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>235</v>
+        <v>472</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9397-7534</v>
+        <v>010-6236-6119</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>355</v>
@@ -3138,14 +3145,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>236</v>
+        <v>473</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1399-6409</v>
+        <v>010-4733-6644</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>324</v>
@@ -3167,14 +3174,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>237</v>
+        <v>474</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7315-6495</v>
+        <v>010-5565-5746</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>325</v>
@@ -3196,14 +3203,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>238</v>
+        <v>475</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5348-5032</v>
+        <v>010-4220-6764</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>326</v>
@@ -3225,14 +3232,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>239</v>
+        <v>476</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3400-6874</v>
+        <v>010-6165-8454</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>356</v>
@@ -3254,14 +3261,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>240</v>
+        <v>477</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7718-2295</v>
+        <v>010-9288-3548</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>357</v>
@@ -3283,14 +3290,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>241</v>
+        <v>478</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9716-5149</v>
+        <v>010-2603-6659</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>358</v>
@@ -3312,14 +3319,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>242</v>
+        <v>479</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3076-0730</v>
+        <v>010-9321-8483</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>327</v>
@@ -3341,14 +3348,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>243</v>
+        <v>480</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7765-8156</v>
+        <v>010-7647-4083</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>328</v>
@@ -3370,14 +3377,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6792-0749</v>
+        <v>010-8621-9869</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>359</v>
@@ -3399,14 +3406,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>245</v>
+        <v>482</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1360-3411</v>
+        <v>010-1295-2141</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>329</v>
@@ -3428,14 +3435,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>246</v>
+        <v>483</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9824-1461</v>
+        <v>010-1608-4830</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>330</v>
@@ -3457,14 +3464,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4247-2859</v>
+        <v>010-4094-2698</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>331</v>
@@ -3486,14 +3493,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>248</v>
+        <v>485</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7268-4231</v>
+        <v>010-7943-6038</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>332</v>
@@ -3515,14 +3522,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>249</v>
+        <v>486</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9422-2045</v>
+        <v>010-6391-6077</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>333</v>
@@ -3544,14 +3551,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>250</v>
+        <v>487</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2314-5282</v>
+        <v>010-5901-2652</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>360</v>
@@ -3573,14 +3580,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>251</v>
+        <v>488</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7480-9434</v>
+        <v>010-8466-0781</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>361</v>
@@ -3602,14 +3609,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>252</v>
+        <v>489</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3158-6806</v>
+        <v>010-7655-2758</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>362</v>
@@ -3631,14 +3638,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>253</v>
+        <v>490</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9924-7373</v>
+        <v>010-8948-6239</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>363</v>
@@ -3660,14 +3667,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8649-5072</v>
+        <v>010-8109-8397</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>334</v>
@@ -3689,14 +3696,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>255</v>
+        <v>492</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4034-0470</v>
+        <v>010-3284-0210</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>335</v>
@@ -3718,14 +3725,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>256</v>
+        <v>493</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7345-8870</v>
+        <v>010-2324-9042</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>336</v>
@@ -3747,14 +3754,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>257</v>
+        <v>494</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1048-3232</v>
+        <v>010-5232-7169</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>337</v>
@@ -3776,14 +3783,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1117-1641</v>
+        <v>010-5554-0166</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>364</v>
@@ -3805,14 +3812,14 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>259</v>
+        <v>496</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5151-8213</v>
+        <v>010-6642-2209</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>365</v>
@@ -3834,14 +3841,14 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>260</v>
+        <v>497</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7132-5355</v>
+        <v>010-8470-9457</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>366</v>
@@ -3863,14 +3870,14 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>498</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3474-4319</v>
+        <v>010-9428-9385</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>367</v>
@@ -3892,14 +3899,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>262</v>
+        <v>499</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8153-9565</v>
+        <v>010-6615-1587</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>338</v>
@@ -3921,14 +3928,14 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>263</v>
+        <v>500</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4963-3919</v>
+        <v>010-8725-8094</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>339</v>
@@ -3950,14 +3957,14 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>264</v>
+        <v>501</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6418-1489</v>
+        <v>010-8734-7824</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>340</v>
@@ -3979,14 +3986,14 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7019-4691</v>
+        <v>010-7728-6579</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>341</v>
@@ -4008,14 +4015,14 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1385-9432</v>
+        <v>010-9194-5017</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>368</v>
@@ -4037,14 +4044,14 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>267</v>
+        <v>504</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8550-0498</v>
+        <v>010-6046-0833</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>369</v>
@@ -4066,14 +4073,14 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>268</v>
+        <v>505</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1610-5297</v>
+        <v>010-8186-3333</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>342</v>
@@ -4095,14 +4102,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>269</v>
+        <v>506</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1502-9066</v>
+        <v>010-5267-6021</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>370</v>
@@ -4124,14 +4131,14 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>270</v>
+        <v>507</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2755-9506</v>
+        <v>010-5265-9086</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>343</v>
@@ -4153,14 +4160,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>271</v>
+        <v>508</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8820-2651</v>
+        <v>010-5448-5260</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>371</v>
@@ -4182,14 +4189,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>272</v>
+        <v>509</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8944-6556</v>
+        <v>010-3020-2271</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>372</v>
@@ -4211,14 +4218,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>273</v>
+        <v>510</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5911-1023</v>
+        <v>010-3471-7545</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>373</v>
@@ -4240,14 +4247,14 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>274</v>
+        <v>511</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1544-7973</v>
+        <v>010-3802-0264</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>404</v>
@@ -4269,14 +4276,14 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>275</v>
+        <v>512</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3110-5599</v>
+        <v>010-1708-8506</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>374</v>
@@ -4298,14 +4305,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>276</v>
+        <v>513</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1103-0210</v>
+        <v>010-8566-7942</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>375</v>
@@ -4327,14 +4334,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>277</v>
+        <v>514</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2547-0984</v>
+        <v>010-2277-7871</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>376</v>
@@ -4356,14 +4363,14 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>278</v>
+        <v>515</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8087-9869</v>
+        <v>010-8984-9501</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>377</v>
@@ -4385,14 +4392,14 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>279</v>
+        <v>516</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-9149-9301</v>
+        <v>010-4811-8725</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>378</v>
@@ -4414,14 +4421,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>280</v>
+        <v>517</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8203-9543</v>
+        <v>010-1148-8197</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>379</v>
@@ -4443,14 +4450,14 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>281</v>
+        <v>518</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1058-8253</v>
+        <v>010-5354-2293</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>405</v>
@@ -4472,14 +4479,14 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>519</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6186-0255</v>
+        <v>010-4276-8390</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>380</v>
@@ -4501,14 +4508,14 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>283</v>
+        <v>520</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7985-0753</v>
+        <v>010-5811-0908</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>406</v>
@@ -4530,14 +4537,14 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>284</v>
+        <v>521</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7200-0923</v>
+        <v>010-9684-3277</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>381</v>
@@ -4559,14 +4566,14 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>285</v>
+        <v>522</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5932-7900</v>
+        <v>010-5239-3139</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>382</v>
@@ -4588,14 +4595,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>523</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5780-6343</v>
+        <v>010-4460-8118</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>383</v>
@@ -4617,14 +4624,14 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>287</v>
+        <v>524</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4566-2410</v>
+        <v>010-5194-6821</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>384</v>
@@ -4646,14 +4653,14 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>288</v>
+        <v>525</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7374-7597</v>
+        <v>010-8691-7224</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>407</v>
@@ -4675,14 +4682,14 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>289</v>
+        <v>526</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9370-3968</v>
+        <v>010-3957-4335</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>408</v>
@@ -4704,14 +4711,14 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>290</v>
+        <v>527</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8110-9784</v>
+        <v>010-5168-2055</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>385</v>
@@ -4733,14 +4740,14 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>291</v>
+        <v>528</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2448-6513</v>
+        <v>010-8226-4252</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>386</v>
@@ -4762,14 +4769,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>292</v>
+        <v>529</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1985-4043</v>
+        <v>010-1554-6317</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>409</v>
@@ -4791,14 +4798,14 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>293</v>
+        <v>530</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2140-9617</v>
+        <v>010-1696-8509</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>387</v>
@@ -4820,14 +4827,14 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>294</v>
+        <v>531</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8645-4152</v>
+        <v>010-5400-9429</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>410</v>
@@ -4849,14 +4856,14 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>295</v>
+        <v>532</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3052-2416</v>
+        <v>010-2522-7630</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>388</v>
@@ -4878,14 +4885,14 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>296</v>
+        <v>533</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2200-6155</v>
+        <v>010-2763-5072</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>389</v>
@@ -4907,14 +4914,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>297</v>
+        <v>534</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5251-7422</v>
+        <v>010-7110-5460</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>390</v>
@@ -4936,14 +4943,14 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>298</v>
+        <v>535</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2708-9934</v>
+        <v>010-2596-1356</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>391</v>
@@ -4965,14 +4972,14 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>299</v>
+        <v>536</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4915-2407</v>
+        <v>010-8712-5891</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>392</v>
@@ -4994,14 +5001,14 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3329-9531</v>
+        <v>010-3082-2537</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>411</v>
@@ -5023,14 +5030,14 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>301</v>
+        <v>538</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3786-5374</v>
+        <v>010-3374-1014</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>393</v>
@@ -5052,14 +5059,14 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>302</v>
+        <v>539</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8577-5066</v>
+        <v>010-3736-5947</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>394</v>
@@ -5081,14 +5088,14 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>303</v>
+        <v>540</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6715-0024</v>
+        <v>010-1612-4635</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>395</v>
@@ -5110,14 +5117,14 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>304</v>
+        <v>541</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2280-1527</v>
+        <v>010-5613-3328</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>396</v>
@@ -5139,14 +5146,14 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>305</v>
+        <v>542</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8789-9456</v>
+        <v>010-8559-2751</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>397</v>
@@ -5168,14 +5175,14 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>306</v>
+        <v>543</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8187-2017</v>
+        <v>010-3049-2261</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>398</v>
@@ -5197,14 +5204,14 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>307</v>
+        <v>544</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9155-7722</v>
+        <v>010-1641-3007</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>412</v>
@@ -5226,14 +5233,14 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>308</v>
+        <v>545</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9831-0213</v>
+        <v>010-7186-9312</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>413</v>
@@ -5255,14 +5262,14 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>309</v>
+        <v>546</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5297-0826</v>
+        <v>010-6055-8207</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>399</v>
@@ -5284,14 +5291,14 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>310</v>
+        <v>547</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9168-1969</v>
+        <v>010-1596-4457</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>400</v>
@@ -5313,14 +5320,14 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>311</v>
+        <v>548</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6166-9342</v>
+        <v>010-6989-8818</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>401</v>
@@ -5342,14 +5349,14 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>312</v>
+        <v>549</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6695-1796</v>
+        <v>010-1733-3519</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>402</v>
@@ -5370,15 +5377,15 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>313</v>
+      <c r="A101" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5837-0857</v>
+        <v>010-1218-0582</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>403</v>
@@ -5403,7 +5410,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A101 F2:F101" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F101" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5556,7 +5563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A124" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
@@ -15445,39 +15452,39 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:I22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:I17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15489,23 +15496,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:I23" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
@@ -15513,15 +15520,15 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" ca="1" si="3">SUM(C3:E3)</f>
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="4">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -15533,39 +15540,39 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -15577,39 +15584,39 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -15621,39 +15628,39 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -15665,39 +15672,39 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -15709,39 +15716,39 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -15753,39 +15760,39 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -15797,39 +15804,39 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15841,39 +15848,39 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -15885,39 +15892,39 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -15929,19 +15936,19 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
@@ -15949,19 +15956,19 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -15973,27 +15980,27 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
@@ -16001,11 +16008,11 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -16017,39 +16024,39 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -16061,39 +16068,39 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -16105,39 +16112,39 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -16149,15 +16156,15 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
@@ -16165,23 +16172,23 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -16193,39 +16200,39 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -16237,39 +16244,39 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -16281,11 +16288,11 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
@@ -16293,27 +16300,27 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -16325,39 +16332,39 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="5">SUM(C22:E22)</f>
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" ca="1" si="6">ROUND(AVERAGE(C22:E22),0)</f>
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -16369,39 +16376,39 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -16413,7 +16420,7 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:I87" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
@@ -16421,31 +16428,31 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -16457,39 +16464,39 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -16501,39 +16508,39 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -16545,39 +16552,39 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -16589,39 +16596,39 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -16633,7 +16640,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
@@ -16641,31 +16648,31 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -16677,15 +16684,15 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
@@ -16693,23 +16700,23 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -16721,39 +16728,39 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -16765,39 +16772,39 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -16809,39 +16816,39 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -16857,35 +16864,35 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -16897,39 +16904,39 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -16941,39 +16948,39 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H36">
         <f t="shared" ref="F36:I99" ca="1" si="8">RANDBETWEEN(50,100)</f>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -16985,39 +16992,39 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:I100" ca="1" si="9">RANDBETWEEN(50,100)</f>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -17029,39 +17036,39 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="8"/>
         <v>52</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ca="1" si="8"/>
-        <v>67</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ca="1" si="8"/>
-        <v>77</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -17073,39 +17080,39 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ca="1" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ca="1" si="8"/>
-        <v>53</v>
-      </c>
       <c r="I39">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -17117,39 +17124,39 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -17161,39 +17168,39 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -17205,39 +17212,39 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -17249,39 +17256,39 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -17293,39 +17300,39 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -17337,39 +17344,39 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -17381,7 +17388,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
@@ -17389,7 +17396,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="8"/>
@@ -17397,23 +17404,23 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -17425,39 +17432,39 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="8"/>
         <v>85</v>
       </c>
-      <c r="G47">
-        <f t="shared" ca="1" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="H47">
-        <f t="shared" ca="1" si="8"/>
-        <v>92</v>
-      </c>
       <c r="I47">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -17469,39 +17476,39 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -17513,35 +17520,35 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
@@ -17557,39 +17564,39 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -17601,15 +17608,15 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="8"/>
@@ -17617,23 +17624,23 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -17645,35 +17652,35 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
@@ -17689,39 +17696,39 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -17733,27 +17740,27 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
@@ -17761,11 +17768,11 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -17777,39 +17784,39 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -17821,39 +17828,39 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -17865,39 +17872,39 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -17909,39 +17916,39 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="8"/>
         <v>69</v>
       </c>
-      <c r="G58">
-        <f t="shared" ca="1" si="8"/>
-        <v>71</v>
-      </c>
-      <c r="H58">
-        <f t="shared" ca="1" si="8"/>
-        <v>52</v>
-      </c>
       <c r="I58">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -17953,39 +17960,39 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -17997,39 +18004,39 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -18041,39 +18048,39 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -18085,39 +18092,39 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -18129,39 +18136,39 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>279</v>
+        <v>215</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -18173,39 +18180,39 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -18217,39 +18224,39 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -18261,19 +18268,19 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="8"/>
@@ -18281,19 +18288,19 @@
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -18305,39 +18312,39 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -18349,39 +18356,39 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ca="1" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="8"/>
         <v>91</v>
       </c>
-      <c r="F68">
-        <f t="shared" ca="1" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="G68">
-        <f t="shared" ca="1" si="8"/>
-        <v>69</v>
-      </c>
-      <c r="H68">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
-      </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -18393,15 +18400,15 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="8"/>
@@ -18409,23 +18416,23 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -18437,39 +18444,39 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -18481,39 +18488,39 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="5"/>
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -18525,39 +18532,39 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="5"/>
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -18569,39 +18576,39 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="8"/>
         <v>61</v>
       </c>
-      <c r="F73">
-        <f t="shared" ca="1" si="8"/>
-        <v>84</v>
-      </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -18613,39 +18620,39 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="5"/>
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -18657,39 +18664,39 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -18701,15 +18708,15 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
@@ -18717,23 +18724,23 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="5"/>
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -18745,39 +18752,39 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="5"/>
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -18789,39 +18796,39 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ca="1" si="8"/>
         <v>62</v>
       </c>
-      <c r="G78">
-        <f t="shared" ca="1" si="8"/>
-        <v>62</v>
-      </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="5"/>
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -18833,39 +18840,39 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="5"/>
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -18877,39 +18884,39 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -18921,39 +18928,39 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="5"/>
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -18965,27 +18972,27 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
@@ -18993,11 +19000,11 @@
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="5"/>
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -19009,39 +19016,39 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="5"/>
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -19053,39 +19060,39 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="5"/>
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -19097,39 +19104,39 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -19141,39 +19148,39 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J101" ca="1" si="10">SUM(C86:E86)</f>
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K101" ca="1" si="11">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -19185,39 +19192,39 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="10"/>
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -19229,39 +19236,39 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:I101" ca="1" si="12">RANDBETWEEN(50,100)</f>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="12"/>
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="10"/>
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -19273,39 +19280,39 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="12"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="8"/>
         <v>63</v>
-      </c>
-      <c r="F89">
-        <f t="shared" ca="1" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="G89">
-        <f t="shared" ca="1" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="H89">
-        <f t="shared" ca="1" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="I89">
-        <f t="shared" ca="1" si="8"/>
-        <v>56</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="10"/>
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -19317,39 +19324,39 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="10"/>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -19361,39 +19368,39 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="10"/>
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -19405,39 +19412,39 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="10"/>
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -19449,39 +19456,39 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="12"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="10"/>
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -19493,15 +19500,15 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="12"/>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="8"/>
@@ -19509,23 +19516,23 @@
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="10"/>
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="11"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -19537,39 +19544,39 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="10"/>
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -19581,7 +19588,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="12"/>
@@ -19589,31 +19596,31 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="10"/>
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -19625,39 +19632,39 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="10"/>
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -19669,39 +19676,39 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="12"/>
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="10"/>
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="11"/>
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -19713,39 +19720,39 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="10"/>
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -19757,31 +19764,31 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="10"/>
@@ -19801,15 +19808,15 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="12"/>
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="12"/>
@@ -19817,23 +19824,23 @@
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="12"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="10"/>
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -19888,23 +19895,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -19916,23 +19923,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E23" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">SUM(C3:E3)</f>
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="3">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -19948,19 +19955,19 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -19972,23 +19979,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -20000,23 +20007,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -20028,23 +20035,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -20056,23 +20063,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -20084,23 +20091,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -20116,19 +20123,19 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -20140,23 +20147,23 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -20168,23 +20175,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -20196,15 +20203,15 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
@@ -20228,19 +20235,19 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -20252,7 +20259,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
@@ -20260,15 +20267,15 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -20280,23 +20287,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -20308,23 +20315,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -20336,23 +20343,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -20364,11 +20371,11 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
@@ -20376,11 +20383,11 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -20392,23 +20399,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -20420,23 +20427,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -20448,23 +20455,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -20476,23 +20483,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -20504,19 +20511,19 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:E60" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
@@ -20532,23 +20539,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -20560,23 +20567,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -20588,23 +20595,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -20616,23 +20623,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -20644,23 +20651,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -20672,23 +20679,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -20700,23 +20707,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -20728,23 +20735,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -20756,23 +20763,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -20784,23 +20791,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -20812,23 +20819,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -20840,23 +20847,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -20868,23 +20875,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -20896,23 +20903,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -20924,23 +20931,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -20952,23 +20959,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -20980,23 +20987,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -21008,23 +21015,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -21036,23 +21043,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -21064,23 +21071,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -21092,23 +21099,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -21120,23 +21127,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -21148,23 +21155,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -21176,23 +21183,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -21204,23 +21211,23 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -21232,23 +21239,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -21260,7 +21267,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
@@ -21268,15 +21275,15 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -21288,23 +21295,23 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -21316,23 +21323,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -21344,23 +21351,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -21372,23 +21379,23 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -21400,11 +21407,11 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
@@ -21428,15 +21435,15 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
@@ -21456,19 +21463,19 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
@@ -21484,23 +21491,23 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -21512,23 +21519,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -21540,7 +21547,7 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:E101" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
@@ -21548,15 +21555,15 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -21568,23 +21575,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -21596,23 +21603,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -21624,23 +21631,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -21652,23 +21659,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -21680,23 +21687,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -21708,23 +21715,23 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="6">SUM(C67:E67)</f>
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="7">ROUND(AVERAGE(C67:E67),0)</f>
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -21736,23 +21743,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -21764,23 +21771,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -21792,23 +21799,23 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -21820,23 +21827,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -21848,23 +21855,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -21876,23 +21883,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -21908,11 +21915,11 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
@@ -21932,23 +21939,23 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -21960,23 +21967,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -21988,23 +21995,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -22016,23 +22023,23 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -22044,23 +22051,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -22072,23 +22079,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -22100,23 +22107,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -22128,23 +22135,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -22156,23 +22163,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -22184,23 +22191,23 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -22212,23 +22219,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -22240,23 +22247,23 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -22268,23 +22275,23 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -22296,23 +22303,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -22324,23 +22331,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -22352,23 +22359,23 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -22380,7 +22387,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
@@ -22388,15 +22395,15 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -22408,23 +22415,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -22436,11 +22443,11 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
@@ -22448,11 +22455,11 @@
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -22464,23 +22471,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -22492,23 +22499,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -22520,23 +22527,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -22548,23 +22555,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -22576,23 +22583,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -22604,23 +22611,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="6"/>
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -22632,23 +22639,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="6"/>
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -22660,23 +22667,23 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="6"/>
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
